--- a/excel/data_sheet.xlsx
+++ b/excel/data_sheet.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>리모델링 완료한 노출도 좋은 곳</t>
+          <t>실20 압구정 로데오 메인골목 신축급 리모델링 3층 무권리 사무실</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>171.21㎡/132㎡(전용률77%)</t>
+          <t>119㎡/99.2㎡(전용률83%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2/6층</t>
+          <t>1/3층</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -613,17 +613,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>80만원</t>
+          <t>90만원</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>북동향(주된 출입구 기준)</t>
+          <t>서향(주된 출입구 기준)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>즉시입주</t>
+          <t>2023년 03월 하순 협의가능</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -633,22 +633,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5대(세대당 5.00대)</t>
+          <t>4대</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>개별난방/전기</t>
+          <t>-/-</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1990.02.16</t>
+          <t>1996.11.27</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -657,52 +657,73 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2329890515</v>
+        <v>2329368299</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>📌 리모델링 완료한 매장 및 사무실추천
-▒▒▒▒▒［층 별 구 조］▒▒▒▒▒
-2층 45p
-쥬얼리샵, 테일러샵, 겔러리, 사무실추천
-해당건물 1층 40p 추가로 임대진행가능
-(보증금 1.5억 / 1022만원, 관포)
-▒▒▒▒▒［D E T A I L］▒▒▒▒▒
-📌 실제 현장 사진 안내를 우선합니다.
-✔ E/V : 엘레베이터
-✔ 냉난방 : 천정형냉난방 설치 
-✔ 상태 : 천정텍스마감, 바닥 마감 전 상태, 베란다있음
-✔ 화장실 : 실내 남녀 분리 화장실 
-✔ 지하철 : 3호선 압구정역 도보7분거리
-✔ 주차 : 발렛계약</t>
+          <t>매물번호 : 50570
+◈ 매 물 정 보 ◈
+◈ 월세 1억5000만 / 950만 / 관 90만
+◈ 실 30평 / 1층
+◈ 압구정로데오역 / 수인분당선(도보6분)거리
+◈ &amp;quot;현재리모델링중&amp;quot;
+◈ 임대료 저렴한 사무실
+◈ 냉난방기 완비
+☞ 100% 실사진, 실매물, 직접 현장조사(허위광고 NO)
+ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ
+방금 보신 매물 외에도 지금 올리지 않은 좋은 매물들 있습니다.
+편하게 연락 주세요!! 홈페이지도 방문해보세요!!
+ ※ 렌트프리 , 옵션, 협의 사항 등 끝까지 도와드립니다!
+◈ 오렌지부동산중개법인(주)
+ 홈페이지: : www.orangerealty.co.kr</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>가인공인중개사사무소톡톡문의길찾기
-대표박외숙등록번호
+          <t>오렌지 부동산중개법인주식회사톡톡문의길찾기
+대표김석진등록번호
 소재지
-서울특별시 강남구 신사동 562-17
-전화010-2735-5114
-최근 3개월 집주인확인 10건
-매매0전세0월세43단기0</t>
+서울특별시 강남구 논현동 202-11 1층
+전화02-6207-6699
+최근 3개월 집주인확인 2159건
+매매2전세0월세2084단기1</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>최대 747만원(VAT 별도)</t>
+          <t>최대 990만원(VAT 별도)</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -717,7 +738,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -842,14 +863,34 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -864,7 +905,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -874,17 +915,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>실20 압구정 로데오 메인골목 신축급 리모델링 3층 무권리 사무실</t>
+          <t>리모델링 완료한 노출도 좋은 곳</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>119㎡/99.2㎡(전용률83%)</t>
+          <t>171.21㎡/132㎡(전용률77%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1/3층</t>
+          <t>2/6층</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -894,17 +935,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>90만원</t>
+          <t>80만원</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>서향(주된 출입구 기준)</t>
+          <t>북동향(주된 출입구 기준)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2023년 03월 하순 협의가능</t>
+          <t>즉시입주</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -914,22 +955,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4대</t>
+          <t>5대(세대당 5.00대)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-/-</t>
+          <t>개별난방/전기</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1996.11.27</t>
+          <t>1990.02.16</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -938,53 +979,72 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2329368299</v>
+        <v>2329890515</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>매물번호 : 50570
-◈ 매 물 정 보 ◈
-◈ 월세 1억5000만 / 950만 / 관 90만
-◈ 실 30평 / 1층
-◈ 압구정로데오역 / 수인분당선(도보6분)거리
-◈ &amp;quot;현재리모델링중&amp;quot;
-◈ 임대료 저렴한 사무실
-◈ 냉난방기 완비
-☞ 100% 실사진, 실매물, 직접 현장조사(허위광고 NO)
-ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ
-방금 보신 매물 외에도 지금 올리지 않은 좋은 매물들 있습니다.
-편하게 연락 주세요!! 홈페이지도 방문해보세요!!
- ※ 렌트프리 , 옵션, 협의 사항 등 끝까지 도와드립니다!
-◈ 오렌지부동산중개법인(주)
- 홈페이지: : www.orangerealty.co.kr</t>
+          <t>📌 리모델링 완료한 매장 및 사무실추천
+▒▒▒▒▒［층 별 구 조］▒▒▒▒▒
+2층 45p
+쥬얼리샵, 테일러샵, 겔러리, 사무실추천
+해당건물 1층 40p 추가로 임대진행가능
+(보증금 1.5억 / 1022만원, 관포)
+▒▒▒▒▒［D E T A I L］▒▒▒▒▒
+📌 실제 현장 사진 안내를 우선합니다.
+✔ E/V : 엘레베이터
+✔ 냉난방 : 천정형냉난방 설치 
+✔ 상태 : 천정텍스마감, 바닥 마감 전 상태, 베란다있음
+✔ 화장실 : 실내 남녀 분리 화장실 
+✔ 지하철 : 3호선 압구정역 도보7분거리
+✔ 주차 : 발렛계약</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>오렌지 부동산중개법인주식회사톡톡문의길찾기
-대표김석진등록번호
+          <t>가인공인중개사사무소톡톡문의길찾기
+대표박외숙등록번호
 소재지
-서울특별시 강남구 논현동 202-11 1층
-전화02-6207-6699
-최근 3개월 집주인확인 2159건
-매매2전세0월세2084단기1</t>
+서울특별시 강남구 신사동 562-17
+전화010-2735-5114
+최근 3개월 집주인확인 10건
+매매0전세0월세43단기0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>최대 990만원(VAT 별도)</t>
+          <t>최대 747만원(VAT 별도)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -999,7 +1059,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1113,14 +1173,34 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1135,7 +1215,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1145,17 +1225,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>압구정역5분.컨디션굿.접근성굿.주차편리</t>
+          <t>압구정로데오역 먹자골목에 위치한 성업중인 1층 가게입니다.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>142.1㎡/89.66㎡(전용률63%)</t>
+          <t>97.4㎡/82.6㎡(전용률85%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2/6층</t>
+          <t>1/4층</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1165,12 +1245,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>52만원</t>
+          <t>35만원</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>동향(주된 출입구 기준)</t>
+          <t>남향(주된 출입구 기준)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1185,12 +1265,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>10대</t>
+          <t>3대</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1200,7 +1280,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1991.02.12</t>
+          <t>1989.09.06</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1209,148 +1289,9 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2329637500</v>
+        <v>2329621945</v>
       </c>
       <c r="S6" t="inlineStr">
-        <is>
-          <t>(주)미스터중개법인
-☎ 02-554-5558 (24시상담가능)
-매물정보 
-- 압구정역 인근에 위치한 전용 약 28평 사무실 입니다 
-- 건물 내외관 컨디션 우수하며 2층일부호실 사용합니다
-- 내부 인테리어 특A급 잘 되어 있으며 사용 가능 합니다 
-- 평수 위치 금액대비 정말 저렴하게 나온 매물입니다 
-- 무료주차 1대 가능 합니다 
-*자세한 상담은 유선통화시 빠른 상담 가능합니다*
-(상담시 매물번호를 말씀해주시면 신속명확한 상담이 가능합니다.)
-현재 보시는 매물외에 많은 매물을 보유하고 있으니 부담없이 편하게 전화주세요^^
-강남 서초권 상가 및 사무실임대 전문
-(주)미스터중개법인 
-☎ 02-554-5558 (24시상담가능)
-────────────────────────────────────────────────────────
-부동산 자산관리, 부동산 매입 및 매각, 부동산 투자전문, 프랜차이즈 개발 
-주거용ㅣ상업용ㅣ업무용ㅣ임대차업무ㅣ분양 및 임대대행ㅣ부동산 시장분석 등 다양한 서비스를 제공하고 있습니다. 
-미스터부동산만의 폭넓고 신뢰할만한 네트워크와 각 분야별로 경험이 풍부한 전문가들의 노하우로 
-항상 기대 이상의 가치를 제공해드릴것을 약속드립니다. 
-현재 보시는 매물외에 많은 매물을 보유하고 있으니 부담없이 편하게 전화주세요. 
-강남 서초권 상가 및 사무실임대 전문
-(주)미스터중개법인 
-☎ 02-554-5558 (24시상담가능)</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>(주)미스터부동산중개법인길찾기
-대표하승민등록번호
-소재지
-서울특별시 강남구 역삼동 644-7 6층
-전화02-554-5558,010-6554-3934
-최근 3개월 집주인확인 602건
-매매5전세0월세1650단기0</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>최대 315만원(VAT 별도)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>중소형사무실</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>압구정로데오역 먹자골목에 위치한 성업중인 1층 가게입니다.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>97.4㎡/82.6㎡(전용률85%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1/4층</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>35만원</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>남향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>즉시입주 협의가능</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>3대</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>개별난방/-</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1989.09.06</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>제1종 근린생활시설</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>2329621945</v>
-      </c>
-      <c r="S7" t="inlineStr">
         <is>
           <t>🧑‍⚖️ 강남 No.1 상가/사무실 전문가 코지공인중개사사무소
 1. 강남 상권별 메리트 있는 상가를 지속적으로 모니터링하여 확보하고 있습니다.
@@ -1385,7 +1326,7 @@
 　Adress. 서울특별시 강남구 테헤란로 313, 성지하이츠1차 1108호</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>코지 공인중개사사무소톡톡문의길찾기
 대표전병의등록번호
@@ -1396,46 +1337,209 @@
 매매0전세0월세619단기0</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>최대 630만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>일반상가</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>도산공원 인접 인테리어 완비 중형사무실</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>245.32㎡/245.32㎡(전용률100%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2/4층</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0원</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>남향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>즉시입주 협의가능</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>11대</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-/-</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>제2종 근린생활시설</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>2329781480</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>★매물정보★
+종류 - 인테리어 사무실
+소재지-서울시 강남구 신사동
+임대료-보증금 1억5천 / 임대료 1300 
+공급면적-245.32m²(65..72P) 
+층수-지상2층
+입주일- 협의가능
+★상세설명★
+위치-도산공원블럭 도산공원 인접 / 압구정로데오역 역세권 
+주차- 2대 자주식 무료 / 발렛 협의가능
+냉난방기-천장형 시스템냉난방기
+엘리베이터-유 
+화장실-내부 남녀분리
+준공일-2009년
+세부특징
+•유동인구 최상의 도산공원 블록, 압구정 로데오역 역세권 
+•지하철역 압구정로데오역 도보 10분거리로 교통 편리
+•건물 내외부 관리 잘되어 깔끔함
+•층고 높아 개방감 탁월함
+•활용도 높은 구조로 공간 로스없이 사용 가능
+•건물 외관 럭셔리하여 쾌적함
+전속 담당자 한주영
+010-5745-1198
+퍼스트부동산중개법인
+02-557-9797</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>(주)퍼스트부동산중개법인
+대표박선주등록번호
+소재지
+서울특별시 강남구 역삼동 668-2 용마빌딩 1층 일부
+전화02-557-9797,010-5745-1198</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>최대 630만원(VAT 별도)</t>
+          <t>최대 1,305만원(VAT 별도)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>일반상가</t>
+          <t>중소형사무실</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1445,7 +1549,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1455,17 +1559,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>소유주직접의뢰.신사역.통임대.노출천장.테라스.A급인테리어.주차3</t>
+          <t>압구정역5분.컨디션굿.접근성굿.주차편리</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>451.99㎡/361.59㎡(전용률80%)</t>
+          <t>142.1㎡/89.66㎡(전용률63%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>B1/7층</t>
+          <t>2/6층</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1475,7 +1579,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0원</t>
+          <t>52만원</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1500,83 +1604,105 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3대</t>
+          <t>10대</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>개별냉난방/전기</t>
+          <t>개별난방/-</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2018.02.14</t>
+          <t>1991.02.12</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>제2종 근린생활시설</t>
+          <t>제1종 근린생활시설</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2329759260</v>
+        <v>2329637500</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>🔼위에 매물번호 알려주시면 빠른 상담 가능합니다
-🔶️직접 현장 확인한 매물입니다 
-🔶️강남,서초 기업 이전 사옥,사무실 임대 전문 
-🔶️직접 찾지 마시고 의뢰하세요 
-🔶️원하시는 매물 다 구해드립니다
-⚜️MIDAS 소속공인중개사 조부장⚜️
-☎010.4985.5800☎
-📍인테리어 사무실 블로그📍
-네이버에서 ELIOFFICE 검색
-https://blog.naver.com/elioffice
-🔱세로수길 단독건물 사옥 통임대🔱
-✅️ 노출천장/루프탑/테라스 
-✅️ 자체관리
-✅️ 내부화장실
-✅️ 엘리베이터 
-🅿️ 무료 주차 3대(자주식)
-🔶️자격증 있는 공인중개사에게 의뢰하세요
-🔶️렌트프리, 핏아웃 등 입주조건 최대한 협의 가능
-🔶️궁금하신 점 있으시면 언제든지 편하게 연락주세요
-⚜️MIDAS 소속공인중개사 조부장⚜️
-☎010.4985.5800☎</t>
+          <t>(주)미스터중개법인
+☎ 02-554-5558 (24시상담가능)
+매물정보 
+- 압구정역 인근에 위치한 전용 약 28평 사무실 입니다 
+- 건물 내외관 컨디션 우수하며 2층일부호실 사용합니다
+- 내부 인테리어 특A급 잘 되어 있으며 사용 가능 합니다 
+- 평수 위치 금액대비 정말 저렴하게 나온 매물입니다 
+- 무료주차 1대 가능 합니다 
+*자세한 상담은 유선통화시 빠른 상담 가능합니다*
+(상담시 매물번호를 말씀해주시면 신속명확한 상담이 가능합니다.)
+현재 보시는 매물외에 많은 매물을 보유하고 있으니 부담없이 편하게 전화주세요^^
+강남 서초권 상가 및 사무실임대 전문
+(주)미스터중개법인 
+☎ 02-554-5558 (24시상담가능)
+────────────────────────────────────────────────────────
+부동산 자산관리, 부동산 매입 및 매각, 부동산 투자전문, 프랜차이즈 개발 
+주거용ㅣ상업용ㅣ업무용ㅣ임대차업무ㅣ분양 및 임대대행ㅣ부동산 시장분석 등 다양한 서비스를 제공하고 있습니다. 
+미스터부동산만의 폭넓고 신뢰할만한 네트워크와 각 분야별로 경험이 풍부한 전문가들의 노하우로 
+항상 기대 이상의 가치를 제공해드릴것을 약속드립니다. 
+현재 보시는 매물외에 많은 매물을 보유하고 있으니 부담없이 편하게 전화주세요. 
+강남 서초권 상가 및 사무실임대 전문
+(주)미스터중개법인 
+☎ 02-554-5558 (24시상담가능)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>(주)마이다스부동산중개법인길찾기
-대표문선태등록번호
+          <t>(주)미스터부동산중개법인길찾기
+대표하승민등록번호
 소재지
-서울특별시 서초구 서초동 1715-3 1층
-전화02-543-1673,010-4985-5800
-최근 3개월 집주인확인 622건
-매매31전세2월세923단기0</t>
+서울특별시 강남구 역삼동 644-7 6층
+전화02-554-5558,010-6554-3934
+최근 3개월 집주인확인 602건
+매매5전세0월세1650단기0</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>최대 2,025만원(VAT 별도)</t>
+          <t>최대 315만원(VAT 별도)</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>대형사무실 신사역A급인테리어통임대사옥</t>
+          <t>중소형사무실</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1586,7 +1712,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1634,7 +1760,11 @@
           <t>불가능</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>6대</t>
@@ -1701,7 +1831,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1743,7 +1873,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1753,17 +1883,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SJ 압구정역 합리적인금액 인테리어A급 강력추천 사무실</t>
+          <t>도산공원 S급 74p 테라스 인테리어사무실</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>142.8㎡/89.66㎡(전용률63%)</t>
+          <t>245.32㎡/245.32㎡(전용률100%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2/6층</t>
+          <t>2/4층</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1773,22 +1903,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>52만원</t>
+          <t>100만원</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>서향(주된 출입구 기준)</t>
+          <t>남향(주된 출입구 기준)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>즉시입주</t>
+          <t>즉시입주 협의가능</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>불가능</t>
+          <t>가능</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1798,167 +1928,28 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11대</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-/-</t>
+          <t>개별냉난방/-</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1991.02.12</t>
+          <t>2009.02.06</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>제1종 근린생활시설</t>
+          <t>제2종 근린생활시설</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2329759501</v>
+        <v>2329786612</v>
       </c>
       <c r="S10" t="inlineStr">
-        <is>
-          <t>〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
-　　　　　 삼정부동산중개
-　　 　　　　 ◈ ◈ ◈
-　 samjungasset　02-6205-5667
-〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
-◈ 매물특징 ◈
-* 압구정역 역세권에 위치한 사무실.
-* 업무홀+룸2.
-* 엘리베이터 있음.
-* 내부 인테리어A급.
-* 시세대비 합리적인 금액.
-* 무료주차 1대 이용가능.
-* 렌트프리 및 핏아웃기간 최대한 협의 해드립니다.
-〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
-◈ 네이버에 보시는 강남, 서초 모든 매물 보유중이며,
-　 매물특성상 공개되지 않은 매물도 있습니다.
-◈ 친절하고 정확한 중개로 
-　 고객님의 시간과 비용을 절감해 드리겠습니다.
-◈ 이외에도 매도, 매수, 임대, 임차 등 모든 의뢰를 받고 있습니다.</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>삼정부동산중개길찾기
-대표박진성등록번호
-소재지
-서울특별시 강남구 역삼동 735-15 1층 101호
-전화02-6205-5667
-최근 3개월 집주인확인 120건
-매매6전세3월세641단기0</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>최대 315만 9,000원(VAT 별도)</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>중소형사무실</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>도산공원 S급 74p 테라스 인테리어사무실</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>245.32㎡/245.32㎡(전용률100%)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2/4층</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>100만원</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>남향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>즉시입주 협의가능</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>11대</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>개별냉난방/-</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2009.02.06</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>제2종 근린생활시설</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>2329786612</v>
-      </c>
-      <c r="S11" t="inlineStr">
         <is>
           <t>☎ 02-543-0775 
 ☎ 02-543-0775
@@ -1988,7 +1979,7 @@
 대표 : 박재현 02-543-0775</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>(주)마이다스부동산중개법인길찾기
 대표박재현등록번호
@@ -1999,536 +1990,132 @@
 매매25전세7월세2224단기2</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>최대 1,305만원(VAT 별도)</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>중소형사무실</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>월세</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>서울시 강남구 신사동</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>도산공원 인접 인테리어 완비 중형사무실</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>245.32㎡/245.32㎡(전용률100%)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2/4층</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>압구정 역세권 A급인테리어 특급 가성비 오피스</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>142.8㎡/89.66㎡(전용률63%)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2/6층</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>없음</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>0원</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>남향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>즉시입주 협의가능</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>서향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>즉시입주</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>가능</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>11대</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-/-</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>제2종 근린생활시설</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>2329781480</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>★매물정보★
-종류 - 인테리어 사무실
-소재지-서울시 강남구 신사동
-임대료-보증금 1억5천 / 임대료 1300 
-공급면적-245.32m²(65..72P) 
-층수-지상2층
-입주일- 협의가능
-★상세설명★
-위치-도산공원블럭 도산공원 인접 / 압구정로데오역 역세권 
-주차- 2대 자주식 무료 / 발렛 협의가능
-냉난방기-천장형 시스템냉난방기
-엘리베이터-유 
-화장실-내부 남녀분리
-준공일-2009년
-세부특징
-•유동인구 최상의 도산공원 블록, 압구정 로데오역 역세권 
-•지하철역 압구정로데오역 도보 10분거리로 교통 편리
-•건물 내외부 관리 잘되어 깔끔함
-•층고 높아 개방감 탁월함
-•활용도 높은 구조로 공간 로스없이 사용 가능
-•건물 외관 럭셔리하여 쾌적함
-전속 담당자 한주영
-010-5745-1198
-퍼스트부동산중개법인
-02-557-9797</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>(주)퍼스트부동산중개법인
-대표박선주등록번호
-소재지
-서울특별시 강남구 역삼동 668-2 용마빌딩 1층 일부
-전화02-557-9797,010-5745-1198</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>최대 1,305만원(VAT 별도)</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>중소형사무실</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>YM0. 로데오거리역 5분.메디컬빌딩.AA급 인테리어.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>205㎡/148.8㎡(전용률73%)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>10/15층</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>150만원</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>남동향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>즉시입주</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1대</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>개별냉난방/전기</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2015.04.02</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>제2종 근린생활시설</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>2329624389</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>■강남 사무실.사옥 이전 전문 퍼센트원 중개사무소■
-# 직접 촬영한 100% 실사진, 실매물을 고집합니다.
-# 가장 좋은 사무실을 선택하실 수 있습니다.
-자격증있는 서유미 차장♥010-4785-7803
-공인중개사 서유미 차장♥02-565-0402
-───▶ I N F O M A T I O N ◀─────────
-▣위치- YM답사0. 로데오거리역 5분. 도산대로 대로변.
-▣금액- 보증금 10,000만원. 월세 620만원. 관리비 155만원.
-▣전용면적- 약 45평. (인포+ 룸4)
-▣층수- 10층 / 총 15층 
-▣엘리베이터 있음.
-▣내부 남녀 분리 화장실
-▣주차- 무료 1대 가능. 
-+ 천정형 냉난방기 완비!
-+ 상징성 있는 메디컬 빌딩 고층뷰 사무실!
-+ 원상복구 협의 가능.
-+ IT, 무역, 마케팅, 엔터. 세무법인 등 다양한 업종 추천.
-★궁금한 네이버 매물, 원하시는 조건 문의시 
-신속하게 찾아드립니다.
-★광고 외 다양한 매물 보유하고 있습니다.
-편안하게 문의주세요.
-★항상 친절, 정직으로 최선을 다하는 퍼센트원입니다!
-공인중개사 서유미 차장☎010-4785-7803♥
-공인중개사 서유미 차장☎010-4785-7803♥</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>퍼센트원공인중개사사무소톡톡문의길찾기
-대표김병국등록번호
-소재지
-서울특별시 강남구 역삼동 825-24 강남역 효성해링턴타워 더퍼스트 2층 207호
-전화02-565-0402,010-4785-7803
-최근 3개월 집주인확인 209건
-매매0전세0월세575단기1</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>최대 648만원(VAT 별도)</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>중소형사무실 ACE 사무실메디타워</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>압구정역 도보1분 대형 학원 사무실 병의원 자주식주차2대</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>612.48㎡/373.55㎡(전용률61%)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>5/6층</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>250만원</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>북서향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>즉시입주</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10대</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>개별냉난방/-</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1984.11.24</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>교육연구시설</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>2329696954</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>■ 매물 설명
-- 3호선 압구정역 4번출구 도보1분 초역세권
-- 전용면적 약 113평
-- 현재 학원으로 운영중
-- 건축물대장상 용도 : 교육연구시설
-- 직통계단 2개소
-- 깔끔한 내부 인테리어 상태
-- 학원, 병의원, 사무실 추천
-- 외부 남녀분리 화장실
-- 엘리베이터
-- 편리한 자주식 주차 2대 무료
-■ 매물 담당자
-공인중개사 권다인 과장 010-6797-7198
-강남구 역삼동 828번지 1층 (주)강남부동산중개
-안녕하세요. 소속 공인중개사 권다인 입니다.
-무수하게 쏟아지는 부동산 광고 속에 어떤 곳과 거래해야 할지 고민 되시죠？ 같은 부동산 매물이라도 어떤 중개사를 만나느냐에 따라 서비스의 질이 달라집니다. 내가 원하는 니즈를 정확하게 파악하고 충족 시켜줄 수 있는 커뮤니케이션이 잘 되는 중개사를 만나는 것이 중요합니다. 
-저희 (주)강남부동산중개는 강남, 서초, 송파 강남 3구 기업 이전 전문 중개법인 입니다. 오랜 기간 강남 한자리에서 쌓아온 경험치와 젊은 중개사의 열정으로 바쁘게 돌아다니며 적합한 매물을 찾아드릴게요. 저와 인연이 될 귀사의 일익 번창을 기원합니다. 감사합니다.</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>주식회사 강남부동산중개길찾기
-대표유범석등록번호
-소재지
-서울특별시 강남구 역삼동 828 번지 1층101호
-전화010-6797-7198
-최근 3개월 집주인확인 205건
-매매14전세2월세930단기0</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>최대 1,620만원(VAT 별도)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>대형사무실 다보빌딩</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>압구정 역세권 A급인테리어 특급 가성비 오피스</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>142.8㎡/89.66㎡(전용률63%)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2/6층</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0원</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>서향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>즉시입주</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>10대</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>개별냉난방/-</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>1991.02.12</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>업무시설</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="R11" t="n">
         <v>2329782824</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>【 강남 오피스 전문 마이다스부동산중개법인 】
 🔎 마이다스 중개법인은 
@@ -2565,7 +2152,7 @@
 📞 TEL: 02-543-0539, 010-9944-8151</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>(주)마이다스부동산중개법인길찾기
 대표박재현등록번호
@@ -2576,112 +2163,457 @@
 매매25전세7월세2224단기2</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>최대 315만원(VAT 별도)</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>중소형사무실</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>월세</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>서울시 강남구 신사동</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>소유주직접의뢰.신사역.통임대.노출천장.테라스.A급인테리어.주차3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>451.99㎡/361.59㎡(전용률80%)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>B1/7층</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0원</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>동향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>즉시입주 협의가능</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3대</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>개별냉난방/전기</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2018.02.14</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>제2종 근린생활시설</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>2329759260</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>🔼위에 매물번호 알려주시면 빠른 상담 가능합니다
+🔶️직접 현장 확인한 매물입니다 
+🔶️강남,서초 기업 이전 사옥,사무실 임대 전문 
+🔶️직접 찾지 마시고 의뢰하세요 
+🔶️원하시는 매물 다 구해드립니다
+⚜️MIDAS 소속공인중개사 조부장⚜️
+☎010.4985.5800☎
+📍인테리어 사무실 블로그📍
+네이버에서 ELIOFFICE 검색
+https://blog.naver.com/elioffice
+🔱세로수길 단독건물 사옥 통임대🔱
+✅️ 노출천장/루프탑/테라스 
+✅️ 자체관리
+✅️ 내부화장실
+✅️ 엘리베이터 
+🅿️ 무료 주차 3대(자주식)
+🔶️자격증 있는 공인중개사에게 의뢰하세요
+🔶️렌트프리, 핏아웃 등 입주조건 최대한 협의 가능
+🔶️궁금하신 점 있으시면 언제든지 편하게 연락주세요
+⚜️MIDAS 소속공인중개사 조부장⚜️
+☎010.4985.5800☎</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>(주)마이다스부동산중개법인길찾기
+대표문선태등록번호
+소재지
+서울특별시 서초구 서초동 1715-3 1층
+전화02-543-1673,010-4985-5800
+최근 3개월 집주인확인 622건
+매매31전세2월세923단기0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>최대 2,025만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>대형사무실 신사역A급인테리어통임대사옥</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>YM0. 로데오거리역 5분.메디컬빌딩.AA급 인테리어.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>205㎡/148.8㎡(전용률73%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10/15층</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>150만원</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>남동향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>즉시입주</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1대</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>개별냉난방/전기</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2015.04.02</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>제2종 근린생활시설</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>2329624389</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>■강남 사무실.사옥 이전 전문 퍼센트원 중개사무소■
+# 직접 촬영한 100% 실사진, 실매물을 고집합니다.
+# 가장 좋은 사무실을 선택하실 수 있습니다.
+자격증있는 서유미 차장♥010-4785-7803
+공인중개사 서유미 차장♥02-565-0402
+───▶ I N F O M A T I O N ◀─────────
+▣위치- YM답사0. 로데오거리역 5분. 도산대로 대로변.
+▣금액- 보증금 10,000만원. 월세 620만원. 관리비 155만원.
+▣전용면적- 약 45평. (인포+ 룸4)
+▣층수- 10층 / 총 15층 
+▣엘리베이터 있음.
+▣내부 남녀 분리 화장실
+▣주차- 무료 1대 가능. 
++ 천정형 냉난방기 완비!
++ 상징성 있는 메디컬 빌딩 고층뷰 사무실!
++ 원상복구 협의 가능.
++ IT, 무역, 마케팅, 엔터. 세무법인 등 다양한 업종 추천.
+★궁금한 네이버 매물, 원하시는 조건 문의시 
+신속하게 찾아드립니다.
+★광고 외 다양한 매물 보유하고 있습니다.
+편안하게 문의주세요.
+★항상 친절, 정직으로 최선을 다하는 퍼센트원입니다!
+공인중개사 서유미 차장☎010-4785-7803♥
+공인중개사 서유미 차장☎010-4785-7803♥</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>퍼센트원공인중개사사무소톡톡문의길찾기
+대표김병국등록번호
+소재지
+서울특별시 강남구 역삼동 825-24 강남역 효성해링턴타워 더퍼스트 2층 207호
+전화02-565-0402,010-4785-7803
+최근 3개월 집주인확인 209건
+매매0전세0월세575단기1</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>최대 648만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>중소형사무실 ACE 사무실메디타워</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>247.37㎡/241.32㎡(전용률98%)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>4/4층</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>없음</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>50만원</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>남향(주된 출입구 기준)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>즉시입주</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>가능</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>3대(세대당 1.00대)</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>개별냉난방/-</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>1995.04.06</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>제1종 근린생활시설</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="R14" t="n">
         <v>2329793008</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>🍊 오렌지부동산중개법인 🍊 
 ● 소속 공인중개사 이실장 : 02 - 6207 - 3017 (24시간 상담가능)
@@ -2713,7 +2645,7 @@
  홈페이지: : www.orangerealty.co.kr</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>오렌지 부동산중개법인주식회사톡톡문의길찾기
 대표김석진등록번호
@@ -2724,21 +2656,357 @@
 매매2전세0월세2084단기1</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>최대 585만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>중소형사무실</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>압구정역 도보1분 대형 학원 사무실 병의원 자주식주차2대</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>612.48㎡/373.55㎡(전용률61%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5/6층</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>250만원</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>북서향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>즉시입주</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>개별냉난방/-</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1984.11.24</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>교육연구시설</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>2329696954</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>■ 매물 설명
+- 3호선 압구정역 4번출구 도보1분 초역세권
+- 전용면적 약 113평
+- 현재 학원으로 운영중
+- 건축물대장상 용도 : 교육연구시설
+- 직통계단 2개소
+- 깔끔한 내부 인테리어 상태
+- 학원, 병의원, 사무실 추천
+- 외부 남녀분리 화장실
+- 엘리베이터
+- 편리한 자주식 주차 2대 무료
+■ 매물 담당자
+공인중개사 권다인 과장 010-6797-7198
+강남구 역삼동 828번지 1층 (주)강남부동산중개
+안녕하세요. 소속 공인중개사 권다인 입니다.
+무수하게 쏟아지는 부동산 광고 속에 어떤 곳과 거래해야 할지 고민 되시죠？ 같은 부동산 매물이라도 어떤 중개사를 만나느냐에 따라 서비스의 질이 달라집니다. 내가 원하는 니즈를 정확하게 파악하고 충족 시켜줄 수 있는 커뮤니케이션이 잘 되는 중개사를 만나는 것이 중요합니다. 
+저희 (주)강남부동산중개는 강남, 서초, 송파 강남 3구 기업 이전 전문 중개법인 입니다. 오랜 기간 강남 한자리에서 쌓아온 경험치와 젊은 중개사의 열정으로 바쁘게 돌아다니며 적합한 매물을 찾아드릴게요. 저와 인연이 될 귀사의 일익 번창을 기원합니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>주식회사 강남부동산중개길찾기
+대표유범석등록번호
+소재지
+서울특별시 강남구 역삼동 828 번지 1층101호
+전화010-6797-7198
+최근 3개월 집주인확인 205건
+매매14전세2월세930단기0</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>최대 1,620만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>대형사무실 다보빌딩</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SJ 압구정역 합리적인금액 인테리어A급 강력추천 사무실</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>142.8㎡/89.66㎡(전용률63%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2/6층</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>52만원</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>서향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>즉시입주</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>불가능</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-/-</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1991.02.12</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>제1종 근린생활시설</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>2329759501</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
+　　　　　 삼정부동산중개
+　　 　　　　 ◈ ◈ ◈
+　 samjungasset　02-6205-5667
+〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
+◈ 매물특징 ◈
+* 압구정역 역세권에 위치한 사무실.
+* 업무홀+룸2.
+* 엘리베이터 있음.
+* 내부 인테리어A급.
+* 시세대비 합리적인 금액.
+* 무료주차 1대 이용가능.
+* 렌트프리 및 핏아웃기간 최대한 협의 해드립니다.
+〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓〓
+◈ 네이버에 보시는 강남, 서초 모든 매물 보유중이며,
+　 매물특성상 공개되지 않은 매물도 있습니다.
+◈ 친절하고 정확한 중개로 
+　 고객님의 시간과 비용을 절감해 드리겠습니다.
+◈ 이외에도 매도, 매수, 임대, 임차 등 모든 의뢰를 받고 있습니다.</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>삼정부동산중개길찾기
+대표박진성등록번호
+소재지
+서울특별시 강남구 역삼동 735-15 1층 101호
+전화02-6205-5667
+최근 3개월 집주인확인 120건
+매매6전세3월세641단기0</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>최대 585만원(VAT 별도)</t>
+          <t>최대 315만 9,000원(VAT 별도)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2753,7 +3021,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1억/730</t>
+          <t>1억 5,000/950</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2763,73 +3031,399 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>3호선 압구정역 도보3분 내외관 인테리어 최상급 가성비 사무실 추천</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>117.6㎡/99.9㎡(전용률85%)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3/5층</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0원</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>동향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>즉시입주 협의가능</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4대</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>개별난방/전기</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>제2종 근린생활시설</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>2329609071</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>다온부동산중개사무소
+☎ 02-558-1302 
+📞 010-9156-1302
+──────────────────────
+【 상세설명 】
+위치 : 3호선 압구정역 도보 3분
+면적 : 전용 약 30 평 
+층수 : 지상 3층 │ E/V 있음
+주차 : 자주식 1대 무료 
+구조 : 오픈형 홀 + 별도 룸 3개 
+화장실 : 내부 남녀 분리 화장실 
+* 뷰티 &amp; 코스메틱 업종 추천 사무실 *
+* 인테리어 유상 승계 가능 有 * 
+──────────────────────
+이외에도 네이버 광고에 올라가지 못한
+다양한 매물을 보유하고있습니다! 
+랜트프리 및 핏아웃 협의해드리겠습니다. 
+──────────────────────
+#다온부동산중개사무소 
+서울시 강남구 역삼동 625-10, B103호
+☎ 02-558-1302
+📞 010-9156-1302</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>다온부동산중개사무소길찾기
+대표박대건등록번호
+소재지
+서울특별시 강남구 역삼동 625-10 라이브 팰리스 B103호
+전화02-558-1302,010-9156-1302
+최근 3개월 집주인확인 58건
+매매0전세0월세563단기0</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>최대 504만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>중소형사무실 세인트빌딩</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>신사동 인테리어 내부수도 노출천정 화이트톤</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>159.06㎡/159.06㎡(전용률100%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2/6층</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20만원</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>동향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>즉시입주 협의가능</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>6대</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-/-</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2010.10.04</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>제2종 근린생활시설</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>2329604452</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>기업이전컨설팅 전문 
+(주) 위메이크부동산중개법인
+☎ 0 2 - 5 6 9 - 2 2 2 4 
+☎ 0 1 0 - 8 7 6 5 - 0 8 8 9
+━━━━━━━━━━━━━━━━━━━━━━━━━━━━
+[ 매물 특징 ]
+◆ 신사동에 위치한 인테리어 사무실 
+◆ 깔끔하고 수려한 내, 외관 
+◆ 내부 노출천정 화이트톤으로 개방감 우수 및 깔끔한 사무실
+◆ 내부 수도인입 (싱크대)
+◆ 엘레베이터 有
+◆ 개별 냉 난방 
+◆ 해당 호실 사용시 무료주차 1대 가능
+◆ 협의 입주 가능 
+◆ 접근성 좋은사무실 찾으시는 분들 강력 추천!
+━━━━━━━━━━━━━━━━━━━━━━━━━━━━
+▷ 직접 두발로 뛰어 눈으로 보고, 찍은 100% 실제 매물들 입니다.
+▷ 궁금 하신 점, 유선으로 문의 주시면 편하게 상담 가능 합니다.
+▷ 상업용 / 업무용 / 시장분석 등 모든 서비스를 제공 하고 있습니다.
+▷ 편안한 업무환경를 위해 누구보다 발 빠르게 움직이겠습니다.
+기업이전컨설팅 전문 
+(주) 위메이크부동산중개법인
+☎ 0 2 - 5 6 9 - 2 2 2 4 
+☎ 0 1 0 - 8 7 6 5 - 0 8 8 9</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>주식회사 위메이크부동산중개법인길찾기
+대표신보람등록번호
+소재지
+서울특별시 강남구 논현로77길 4 (역삼동) 1층
+전화02-569-2224,010-8765-0889
+최근 3개월 집주인확인 416건
+매매0전세0월세560단기0</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>최대 423만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>중소형사무실</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>l압구정로데오역 도보 3분l 초역세권 베란다 에폭시바닥 5층 사무실 임대</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>149.29㎡/115.7㎡(전용률78%)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>3/6층</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>없음</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>70만원</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>남향(주된 출입구 기준)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>즉시입주 협의가능</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>가능</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>9대</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>개별난방/-</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>1992.01.09</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>제2종 근린생활시설</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="R19" t="n">
         <v>2329585258</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>🍊 오렌지부동산중개법인 🍊 
  www.orangerealty.co.kr
@@ -2858,7 +3452,7 @@
  매물 번호 : 55556</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>오렌지 부동산중개법인주식회사톡톡문의길찾기
 대표김석진등록번호
@@ -2869,112 +3463,297 @@
 매매2전세0월세2084단기1</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>최대 675만원(VAT 별도)</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>중소형사무실 더스톤청담</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>월세</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>서울시 강남구 신사동</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>l을지병원사거리 인근l 대로변O 엘베O 룸7 창고 테라스 3층 사무실 임</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>267.97㎡/231.4㎡(전용률86%)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3/6층</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>100만원</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>남향(주된 출입구 기준)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>즉시입주 협의가능</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>30대</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>개별난방/-</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1985.11.07</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>제2종 근린생활시설</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>2329574984</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>🍊 오렌지부동산중개법인 🍊 
+ www.orangerealty.co.kr
+🎈 올바른 중개문화를 실천하겠습니다.
+🎈 원하시는 매물을 찾으실때까지 함께 하겠습니다.
+◎ 위치 : 을지병원 사거리 인근
+◎ 면적 : 전용 약 70평
+◎ 층수 : 해당층 3층 / 총층 6층
+◎ 구조 : 홀+룸7+야외테라스+창고+외부남여구분화장실
+◎ 주차 : 발렛협의
+ --------------------------------------------------------------
+- 을지병원사거리 인근 !
+- 병원으로 쓰였던 곳 !
+- 대로변, 노출성 Good !
+--------------------------------------------------------------
+ 🚶 직접 돌아다니며
+ 🏃발로 뛰어다닌
+📷 촬영한 100% 실매물입니다!🤙
+--------------------------------------------------------------
+ 방금 보신 매물 외에도 올리지 않은 좋은 매물들 있습니다.
+ 렌트프리 , 옵션, 협의 사항 등 끝까지 도와드립니다!
+📞언제든지 편하게 연락주시면
+친절하게 상담해드리겠습니다 : )
+ 오렌지부동산중개법인 🍊
+ 김용환 과장
+ 매물 번호 : 53207</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>오렌지 부동산중개법인주식회사톡톡문의길찾기
+대표김석진등록번호
+소재지
+서울특별시 강남구 논현동 202-11 1층
+전화02-6207-3015,02-6207-3015
+최근 3개월 집주인확인 2159건
+매매2전세0월세2084단기1</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>최대 1,170만원(VAT 별도)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>중소형사무실 동현빌딩</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1억 5,000/950</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>서울시 강남구 신사동</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>신사동 가성비 인테리어사옥</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>451㎡/434㎡(전용률96%)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1/7층</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>없음</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>0원</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>남향(주된 출입구 기준)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>즉시입주 협의가능</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>가능</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>3대</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>-/-</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>업무시설</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="R21" t="n">
         <v>2329582392</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>⊙위 치 : 3호선/신분당선 신사역 도보8분
 ⊙금액 : 2억5000/2000
@@ -2986,7 +3765,7 @@
 최상 업무 인테리어 무상인수, 룸 5개</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>주식회사 케이즈부동산중개법인톡톡문의길찾기
 대표안수민등록번호
@@ -2997,404 +3776,41 @@
 매매5전세1월세315단기0</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>최대 2,025만원(VAT 별도)</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>대형사무실 신축급 가성비 사옥</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3호선 압구정역 도보3분 내외관 인테리어 최상급 가성비 사무실 추천</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>117.6㎡/99.9㎡(전용률85%)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3/5층</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0원</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>동향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>즉시입주 협의가능</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>4대</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>개별난방/전기</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>제2종 근린생활시설</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2329609071</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>다온부동산중개사무소
-☎ 02-558-1302 
-📞 010-9156-1302
-──────────────────────
-【 상세설명 】
-위치 : 3호선 압구정역 도보 3분
-면적 : 전용 약 30 평 
-층수 : 지상 3층 │ E/V 있음
-주차 : 자주식 1대 무료 
-구조 : 오픈형 홀 + 별도 룸 3개 
-화장실 : 내부 남녀 분리 화장실 
-* 뷰티 &amp; 코스메틱 업종 추천 사무실 *
-* 인테리어 유상 승계 가능 有 * 
-──────────────────────
-이외에도 네이버 광고에 올라가지 못한
-다양한 매물을 보유하고있습니다! 
-랜트프리 및 핏아웃 협의해드리겠습니다. 
-──────────────────────
-#다온부동산중개사무소 
-서울시 강남구 역삼동 625-10, B103호
-☎ 02-558-1302
-📞 010-9156-1302</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>다온부동산중개사무소길찾기
-대표박대건등록번호
-소재지
-서울특별시 강남구 역삼동 625-10 라이브 팰리스 B103호
-전화02-558-1302,010-9156-1302
-최근 3개월 집주인확인 58건
-매매0전세0월세563단기0</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>최대 504만원(VAT 별도)</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>중소형사무실 세인트빌딩</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>신사동 인테리어 내부수도 노출천정 화이트톤</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>159.06㎡/159.06㎡(전용률100%)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2/6층</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>20만원</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>동향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>즉시입주 협의가능</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>6대</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-/-</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2010.10.04</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>제2종 근린생활시설</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>2329604452</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>기업이전컨설팅 전문 
-(주) 위메이크부동산중개법인
-☎ 0 2 - 5 6 9 - 2 2 2 4 
-☎ 0 1 0 - 8 7 6 5 - 0 8 8 9
-━━━━━━━━━━━━━━━━━━━━━━━━━━━━
-[ 매물 특징 ]
-◆ 신사동에 위치한 인테리어 사무실 
-◆ 깔끔하고 수려한 내, 외관 
-◆ 내부 노출천정 화이트톤으로 개방감 우수 및 깔끔한 사무실
-◆ 내부 수도인입 (싱크대)
-◆ 엘레베이터 有
-◆ 개별 냉 난방 
-◆ 해당 호실 사용시 무료주차 1대 가능
-◆ 협의 입주 가능 
-◆ 접근성 좋은사무실 찾으시는 분들 강력 추천!
-━━━━━━━━━━━━━━━━━━━━━━━━━━━━
-▷ 직접 두발로 뛰어 눈으로 보고, 찍은 100% 실제 매물들 입니다.
-▷ 궁금 하신 점, 유선으로 문의 주시면 편하게 상담 가능 합니다.
-▷ 상업용 / 업무용 / 시장분석 등 모든 서비스를 제공 하고 있습니다.
-▷ 편안한 업무환경를 위해 누구보다 발 빠르게 움직이겠습니다.
-기업이전컨설팅 전문 
-(주) 위메이크부동산중개법인
-☎ 0 2 - 5 6 9 - 2 2 2 4 
-☎ 0 1 0 - 8 7 6 5 - 0 8 8 9</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>주식회사 위메이크부동산중개법인길찾기
-대표신보람등록번호
-소재지
-서울특별시 강남구 논현로77길 4 (역삼동) 1층
-전화02-569-2224,010-8765-0889
-최근 3개월 집주인확인 416건
-매매0전세0월세560단기0</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>최대 423만원(VAT 별도)</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>상한요율0.9%</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>중소형사무실</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>월세</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1억/730</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>서울시 강남구 신사동</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>l을지병원사거리 인근l 대로변O 엘베O 룸7 창고 테라스 3층 사무실 임</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>267.97㎡/231.4㎡(전용률86%)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>3/6층</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>없음</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>100만원</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>남향(주된 출입구 기준)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>즉시입주 협의가능</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>가능</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>30대</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>개별난방/-</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1985.11.07</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>제2종 근린생활시설</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
